--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4019929.621311616</v>
+        <v>4015917.011297625</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>283.2268612046863</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>121.0389903687753</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>72.57251122165317</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>251.5023521518534</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>295.5067563176996</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.8962336074239</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>124.2292170629837</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>123.4745095987529</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.962239308310091</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>125.2700607443048</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.62152140683692</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>33.82351723687751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>58.47559664514586</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>81.8827028156209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946261</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>75.00788511618104</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>70.40964990483397</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>201.6887504327739</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>14.19454216862698</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>174.7683347992599</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>133.745793352658</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>137.7610225486951</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>180.9726497471655</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>2291.674678112793</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1922.712161172381</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1564.446462565631</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1178.658209967387</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>767.6723051777792</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>352.5998550227757</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4345,37 +4345,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3093.053546703159</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2839.523069976995</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V2" t="n">
-        <v>2839.523069976995</v>
+        <v>2678.274518176915</v>
       </c>
       <c r="W2" t="n">
-        <v>2839.523069976995</v>
+        <v>2678.274518176915</v>
       </c>
       <c r="X2" t="n">
-        <v>2466.057311715915</v>
+        <v>2678.274518176915</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>2678.274518176915</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>753.6735467432883</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>584.7373638153814</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>434.6207244030456</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>286.7076308206525</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>139.8176833227422</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>139.8176833227422</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>139.8176833227422</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1673.251768137125</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W4" t="n">
-        <v>935.322011573528</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X4" t="n">
-        <v>935.322011573528</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y4" t="n">
-        <v>935.322011573528</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1870.65619074133</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.256030805452</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.5770176220484</v>
+        <v>973.5548741173881</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>804.6186911894812</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>654.5020517771454</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>506.5889581947523</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>359.6990106968419</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>191.9961740715609</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.739181610489</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>996.7496307124713</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.9570515689412</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078695</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1285.591601078695</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.591601078695</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>899.8033484804509</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>488.8174436908434</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,16 +4886,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.676548429999</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.676548429999</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5026,67 +5026,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>379.8591585748671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2072.35525930079</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1399.536196722681</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1171.546645824663</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.7540666811332</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.34112979674</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868833</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456497</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874104</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3396.13370894027</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3175.34112979674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.838905772771</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399323</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>4285.81535695393</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>4285.81535695393</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3192.420589669524</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3594.861633643294</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3594.861633643294</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3374.069054499764</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
@@ -6320,13 +6320,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3336.216066251167</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C28" t="n">
-        <v>3167.27988332326</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>3017.163243910925</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2869.250150328532</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2722.360202830621</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2555.164103545501</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2413.452272387699</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>3966.646661122954</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>3738.657110224937</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y28" t="n">
-        <v>3517.864531081407</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
         <v>779.6143379232836</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2125.941686997836</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.866460342034</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.866460342034</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407056</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>779.6143379232836</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111701</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1030.918378293891</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>861.9821953659846</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>711.8655559536488</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>563.9524623712557</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>417.0625148733453</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>249.8664155882253</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>108.1545844304234</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1433.359422267661</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1212.566843124131</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>379.8591585748671</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>232.9692110769568</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>232.9692110769568</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.79556933158176e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.05335912891307e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.31459260778996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>83.79952661609433</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>252.6994810997135</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>167.2340587438913</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>204.6402955209701</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>114.1584408891652</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.257951202384476</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>146.9958004224543</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>16.89590291932086</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.07129414993854</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.8696796655544</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>2.533690297528807</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>44.73700564187163</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615728.9971727141</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615728.9971727141</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615728.9971727139</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615728.9971727141</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900058</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900065</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.680563094254467e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314498</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179347</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26456,10 +26456,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705990.9834478477</v>
+        <v>-705990.9834478465</v>
       </c>
       <c r="C6" t="n">
-        <v>622753.7622797451</v>
+        <v>622753.7622797444</v>
       </c>
       <c r="D6" t="n">
-        <v>622753.7622797451</v>
+        <v>622753.7622797452</v>
       </c>
       <c r="E6" t="n">
-        <v>369444.5758069502</v>
+        <v>369097.196552594</v>
       </c>
       <c r="F6" t="n">
-        <v>694857.0376143055</v>
+        <v>694509.6583599487</v>
       </c>
       <c r="G6" t="n">
-        <v>694857.0376143055</v>
+        <v>694509.6583599484</v>
       </c>
       <c r="H6" t="n">
-        <v>694857.0376143057</v>
+        <v>694509.6583599482</v>
       </c>
       <c r="I6" t="n">
-        <v>694857.0376143057</v>
+        <v>694509.6583599485</v>
       </c>
       <c r="J6" t="n">
-        <v>477325.8352170281</v>
+        <v>476978.455962671</v>
       </c>
       <c r="K6" t="n">
-        <v>694857.0376143056</v>
+        <v>694509.6583599488</v>
       </c>
       <c r="L6" t="n">
-        <v>694857.0376143056</v>
+        <v>694509.6583599487</v>
       </c>
       <c r="M6" t="n">
-        <v>609802.0096787938</v>
+        <v>609454.630424437</v>
       </c>
       <c r="N6" t="n">
-        <v>694857.0376143056</v>
+        <v>694509.6583599483</v>
       </c>
       <c r="O6" t="n">
-        <v>694857.0376143057</v>
+        <v>694509.6583599488</v>
       </c>
       <c r="P6" t="n">
-        <v>694857.0376143059</v>
+        <v>694509.6583599488</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>11.3809031826342</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>82.87897977084481</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>23.77990918818492</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>34.70948605375952</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>69.76613545330798</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.93574657451342</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>20.5257978513371</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>287.4472160547005</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.8697408736272</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>73.08464294440368</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.742862889484124e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.189072575922853e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="27">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948329</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256881</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>270.4557004614704</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,10 +33259,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954392</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>530.4152909475304</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33745,31 +33745,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>618.3341264639744</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281453</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>136.4812930471402</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121058</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>399.073578864197</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>476.2000925419561</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>245.9177694853267</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4015917.011297625</v>
+        <v>4017677.541600409</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>357.9638926978952</v>
       </c>
       <c r="H2" t="n">
-        <v>283.2268612046863</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>251.5023521518534</v>
+        <v>251.5023521518545</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4217010493351</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506837</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777587</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>71.6703719699171</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>53.08838020946261</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.6887504327739</v>
+        <v>199.5072400611301</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2291.674678112793</v>
+        <v>2291.674678112795</v>
       </c>
       <c r="C2" t="n">
-        <v>1922.712161172381</v>
+        <v>1922.712161172383</v>
       </c>
       <c r="D2" t="n">
-        <v>1564.446462565631</v>
+        <v>1564.446462565633</v>
       </c>
       <c r="E2" t="n">
-        <v>1178.658209967387</v>
+        <v>1178.658209967389</v>
       </c>
       <c r="F2" t="n">
-        <v>767.6723051777792</v>
+        <v>767.672305177781</v>
       </c>
       <c r="G2" t="n">
-        <v>352.5998550227757</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176915</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176915</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.274518176915</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y2" t="n">
-        <v>2678.274518176915</v>
+        <v>2678.274518176917</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
         <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
         <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
         <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
@@ -4451,10 +4451,10 @@
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4470,55 +4470,55 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
         <v>1673.251768137125</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4719,10 +4719,10 @@
         <v>191.9961740715609</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,16 +4886,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4956,7 +4956,7 @@
         <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5840,19 +5840,19 @@
         <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
         <v>175.9033664000583</v>
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
         <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6445,34 +6445,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,10 +6554,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,55 +6597,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232836</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>779.6143379232836</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,28 +6858,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2437.724555511392</v>
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7171,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.79556933158176e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>114.1584408891652</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.89590291932086</v>
+        <v>19.07741329096464</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615728.997172714</v>
+        <v>615728.9971727141</v>
       </c>
     </row>
     <row r="6">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900062</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>7.680563094254467e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314498</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705990.9834478465</v>
+        <v>-705990.9834478477</v>
       </c>
       <c r="C6" t="n">
-        <v>622753.7622797444</v>
+        <v>622753.7622797451</v>
       </c>
       <c r="D6" t="n">
         <v>622753.7622797452</v>
       </c>
       <c r="E6" t="n">
-        <v>369097.196552594</v>
+        <v>369409.8378815144</v>
       </c>
       <c r="F6" t="n">
-        <v>694509.6583599487</v>
+        <v>694822.2996888699</v>
       </c>
       <c r="G6" t="n">
-        <v>694509.6583599484</v>
+        <v>694822.2996888702</v>
       </c>
       <c r="H6" t="n">
-        <v>694509.6583599482</v>
+        <v>694822.2996888697</v>
       </c>
       <c r="I6" t="n">
-        <v>694509.6583599485</v>
+        <v>694822.29968887</v>
       </c>
       <c r="J6" t="n">
-        <v>476978.455962671</v>
+        <v>477291.0972915926</v>
       </c>
       <c r="K6" t="n">
-        <v>694509.6583599488</v>
+        <v>694822.2996888702</v>
       </c>
       <c r="L6" t="n">
-        <v>694509.6583599487</v>
+        <v>694822.29968887</v>
       </c>
       <c r="M6" t="n">
-        <v>609454.630424437</v>
+        <v>609767.271753358</v>
       </c>
       <c r="N6" t="n">
-        <v>694509.6583599483</v>
+        <v>694822.2996888697</v>
       </c>
       <c r="O6" t="n">
-        <v>694509.6583599488</v>
+        <v>694822.29968887</v>
       </c>
       <c r="P6" t="n">
-        <v>694509.6583599488</v>
+        <v>694822.2996888701</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>52.95783295555822</v>
       </c>
       <c r="H2" t="n">
-        <v>11.3809031826342</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>34.70948605375952</v>
+        <v>34.70948605375841</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>150.4543446923764</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194512</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>20.5257978513371</v>
+        <v>20.52579785133712</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923762</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>73.08464294440368</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28089,13 +28089,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>369.1789913099988</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>593.5422977113952</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256881</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32332,7 +32332,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>512.9101366533182</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488883</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>226.5827468655544</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>462.2005856280619</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113578</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>370.3138922088737</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>226.582746865555</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
